--- a/docs/homebrewing/batches/batch_2/Batch_2_Brouwpunt_Kruidig_Wit_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_2/Batch_2_Brouwpunt_Kruidig_Wit_tasting_notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #2 - 02 Brouwpunt Kruidig Wit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #2 - Brouwpunt Kruidig Wit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D21E194-B0C9-4AE2-8164-623FF02EABC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90645AF5-0E4D-4950-A54E-D7DE2470CC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasting Notes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Bottling day</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Batch:</t>
   </si>
   <si>
-    <t>02 Brouwpunt - Kruidig Wit</t>
-  </si>
-  <si>
     <t>more carbonation and foam, slightly harsh and slightly spicy taste. I give myself a 3 out of 5 score.</t>
   </si>
   <si>
@@ -68,10 +65,16 @@
     <t>Brew day</t>
   </si>
   <si>
-    <t>cooled and serverd @ 11 C, pours with foam which remains for several minutes, less sour, hazy and hints of coriander flavor, still boozy.</t>
-  </si>
-  <si>
     <t>cooled and serverd @ 11 C, pours with foam which remains for several minutes, hazy and hints of coriander flavor, still boozy.</t>
+  </si>
+  <si>
+    <t>cooled and served @ 11 C, pours with foam which remains for several minutes, less sour, hazy and hints of coriander flavor, still boozy.</t>
+  </si>
+  <si>
+    <t>cooled and served @ 11 C, pours with foam which remains for a bit, sour, hazy and boozy.</t>
+  </si>
+  <si>
+    <t>Brouwpunt - Kruidig Wit</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,11 +117,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -127,31 +144,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,145 +473,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11"/>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44016</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44016</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>44026</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <f>A7-$A$6</f>
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>44055</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <f>A8-$A$6</f>
         <v>39</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44064</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" ref="B9:B14" si="0">A9-$A$7</f>
+        <v>38</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44064</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" ref="B9:B11" si="0">A9-$A$7</f>
-        <v>38</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>44099</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>44113</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>3.25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44149</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44184</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/docs/homebrewing/batches/batch_2/Batch_2_Brouwpunt_Kruidig_Wit_tasting_notes.xlsx
+++ b/docs/homebrewing/batches/batch_2/Batch_2_Brouwpunt_Kruidig_Wit_tasting_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\04 batches\Batch #2 - Brouwpunt Kruidig Wit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homebrewing\04 batches\Batch #2 - Brouwpunt Kruidig Wit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90645AF5-0E4D-4950-A54E-D7DE2470CC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04E55B7-E1EC-48AF-B4E4-096941E0E005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasting Notes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Bottling day</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Brouwpunt - Kruidig Wit</t>
+  </si>
+  <si>
+    <t>cooled and served @ 11 C, pours with no foam, sour, clear and boozy.</t>
+  </si>
+  <si>
+    <t>gusher</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +569,7 @@
         <v>44064</v>
       </c>
       <c r="B9" s="5">
-        <f t="shared" ref="B9:B14" si="0">A9-$A$7</f>
+        <f t="shared" ref="B9:B16" si="0">A9-$A$7</f>
         <v>38</v>
       </c>
       <c r="C9" s="5">
@@ -646,6 +652,111 @@
       </c>
       <c r="D14" s="7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44262</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44290</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44290</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" ref="B17:B21" si="1">A17-$A$7</f>
+        <v>264</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44290</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44290</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44290</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44290</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
